--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna4-Epha7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna4-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,16 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha7</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,247 +528,1549 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.85114177165743</v>
+        <v>1.973732</v>
       </c>
       <c r="H2">
-        <v>1.85114177165743</v>
+        <v>3.947464</v>
       </c>
       <c r="I2">
-        <v>0.5499969496172107</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J2">
-        <v>0.5499969496172107</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.1162150954713</v>
+        <v>0.3423605</v>
       </c>
       <c r="N2">
-        <v>1.1162150954713</v>
+        <v>0.684721</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2024379518768077</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1895111415682583</v>
       </c>
       <c r="Q2">
-        <v>2.06627238938151</v>
+        <v>0.675727874386</v>
       </c>
       <c r="R2">
-        <v>2.06627238938151</v>
+        <v>2.702911497544</v>
       </c>
       <c r="S2">
-        <v>0.5499969496172107</v>
+        <v>0.09906461768771165</v>
       </c>
       <c r="T2">
-        <v>0.5499969496172107</v>
+        <v>0.07640015684074924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5059064258556349</v>
+        <v>1.973732</v>
       </c>
       <c r="H3">
-        <v>0.5059064258556349</v>
+        <v>3.947464</v>
       </c>
       <c r="I3">
-        <v>0.1503110108974608</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J3">
-        <v>0.1503110108974608</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.1162150954713</v>
+        <v>0.1032176666666667</v>
       </c>
       <c r="N3">
-        <v>1.1162150954713</v>
+        <v>0.309653</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.06103266304817009</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.08570307252156117</v>
       </c>
       <c r="Q3">
-        <v>0.5647003894359917</v>
+        <v>0.2037240116653333</v>
       </c>
       <c r="R3">
-        <v>0.5647003894359917</v>
+        <v>1.222344069992</v>
       </c>
       <c r="S3">
-        <v>0.1503110108974608</v>
+        <v>0.0298668178336899</v>
       </c>
       <c r="T3">
-        <v>0.1503110108974608</v>
+        <v>0.0345506239274223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.146113417591255</v>
+        <v>1.973732</v>
       </c>
       <c r="H4">
-        <v>0.146113417591255</v>
+        <v>3.947464</v>
       </c>
       <c r="I4">
-        <v>0.04341209042102888</v>
+        <v>0.4893579329828272</v>
       </c>
       <c r="J4">
-        <v>0.04341209042102888</v>
+        <v>0.4031433519344368</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.1162150954713</v>
+        <v>0.01332233333333333</v>
       </c>
       <c r="N4">
-        <v>1.1162150954713</v>
+        <v>0.039967</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.007877503024502313</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.01106171972972726</v>
       </c>
       <c r="Q4">
-        <v>0.1630940023662606</v>
+        <v>0.02629471561466667</v>
       </c>
       <c r="R4">
-        <v>0.1630940023662606</v>
+        <v>0.157768293688</v>
       </c>
       <c r="S4">
-        <v>0.04341209042102888</v>
+        <v>0.003854918597136421</v>
       </c>
       <c r="T4">
-        <v>0.04341209042102888</v>
+        <v>0.004459458770001541</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.973732</v>
+      </c>
+      <c r="H5">
+        <v>3.947464</v>
+      </c>
+      <c r="I5">
+        <v>0.4893579329828272</v>
+      </c>
+      <c r="J5">
+        <v>0.4031433519344368</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.342529</v>
+      </c>
+      <c r="O5">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P5">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q5">
+        <v>0.2253534827426667</v>
+      </c>
+      <c r="R5">
+        <v>1.352120896456</v>
+      </c>
+      <c r="S5">
+        <v>0.03303779148193613</v>
+      </c>
+      <c r="T5">
+        <v>0.03821887940125248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.862569363850737</v>
-      </c>
-      <c r="H5">
-        <v>0.862569363850737</v>
-      </c>
-      <c r="I5">
-        <v>0.2562799490642995</v>
-      </c>
-      <c r="J5">
-        <v>0.2562799490642995</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.1162150954713</v>
-      </c>
-      <c r="N5">
-        <v>1.1162150954713</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.9628129448212689</v>
-      </c>
-      <c r="R5">
-        <v>0.9628129448212689</v>
-      </c>
-      <c r="S5">
-        <v>0.2562799490642995</v>
-      </c>
-      <c r="T5">
-        <v>0.2562799490642995</v>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.973732</v>
+      </c>
+      <c r="H6">
+        <v>3.947464</v>
+      </c>
+      <c r="I6">
+        <v>0.4893579329828272</v>
+      </c>
+      <c r="J6">
+        <v>0.4031433519344368</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.1181105</v>
+      </c>
+      <c r="N6">
+        <v>2.236221</v>
+      </c>
+      <c r="O6">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P6">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q6">
+        <v>2.206850473386</v>
+      </c>
+      <c r="R6">
+        <v>8.827401893544</v>
+      </c>
+      <c r="S6">
+        <v>0.3235337873823531</v>
+      </c>
+      <c r="T6">
+        <v>0.2495142329950113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5518016666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.655405</v>
+      </c>
+      <c r="I7">
+        <v>0.1368111390079702</v>
+      </c>
+      <c r="J7">
+        <v>0.1690618383116417</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>0.3423605</v>
+      </c>
+      <c r="N7">
+        <v>0.684721</v>
+      </c>
+      <c r="O7">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P7">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q7">
+        <v>0.1889150945008333</v>
+      </c>
+      <c r="R7">
+        <v>1.133490567005</v>
+      </c>
+      <c r="S7">
+        <v>0.02769576677470671</v>
+      </c>
+      <c r="T7">
+        <v>0.03203910197406753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5518016666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.655405</v>
+      </c>
+      <c r="I8">
+        <v>0.1368111390079702</v>
+      </c>
+      <c r="J8">
+        <v>0.1690618383116417</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.309653</v>
+      </c>
+      <c r="O8">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P8">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q8">
+        <v>0.0569556804961111</v>
+      </c>
+      <c r="R8">
+        <v>0.5126011244649999</v>
+      </c>
+      <c r="S8">
+        <v>0.008349948148309803</v>
+      </c>
+      <c r="T8">
+        <v>0.01448911898945108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5518016666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.655405</v>
+      </c>
+      <c r="I9">
+        <v>0.1368111390079702</v>
+      </c>
+      <c r="J9">
+        <v>0.1690618383116417</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.039967</v>
+      </c>
+      <c r="O9">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P9">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q9">
+        <v>0.007351285737222222</v>
+      </c>
+      <c r="R9">
+        <v>0.066161571635</v>
+      </c>
+      <c r="S9">
+        <v>0.001077730161320891</v>
+      </c>
+      <c r="T9">
+        <v>0.001870114672395847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5518016666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.655405</v>
+      </c>
+      <c r="I10">
+        <v>0.1368111390079702</v>
+      </c>
+      <c r="J10">
+        <v>0.1690618383116417</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.342529</v>
+      </c>
+      <c r="O10">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P10">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q10">
+        <v>0.06300269102722222</v>
+      </c>
+      <c r="R10">
+        <v>0.567024219245</v>
+      </c>
+      <c r="S10">
+        <v>0.009236465945081783</v>
+      </c>
+      <c r="T10">
+        <v>0.01602743534969043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5518016666666666</v>
+      </c>
+      <c r="H11">
+        <v>1.655405</v>
+      </c>
+      <c r="I11">
+        <v>0.1368111390079702</v>
+      </c>
+      <c r="J11">
+        <v>0.1690618383116417</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.1181105</v>
+      </c>
+      <c r="N11">
+        <v>2.236221</v>
+      </c>
+      <c r="O11">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P11">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q11">
+        <v>0.6169752374174999</v>
+      </c>
+      <c r="R11">
+        <v>3.701851424505</v>
+      </c>
+      <c r="S11">
+        <v>0.09045122797855099</v>
+      </c>
+      <c r="T11">
+        <v>0.1046360673260368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1827426666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.5482279999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.0453083669048127</v>
+      </c>
+      <c r="J12">
+        <v>0.05598897761811442</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.3423605</v>
+      </c>
+      <c r="N12">
+        <v>0.684721</v>
+      </c>
+      <c r="O12">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P12">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q12">
+        <v>0.06256387073133332</v>
+      </c>
+      <c r="R12">
+        <v>0.375383224388</v>
+      </c>
+      <c r="S12">
+        <v>0.009172132999093217</v>
+      </c>
+      <c r="T12">
+        <v>0.01061053506364853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1827426666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.5482279999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.0453083669048127</v>
+      </c>
+      <c r="J13">
+        <v>0.05598897761811442</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.309653</v>
+      </c>
+      <c r="O13">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P13">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q13">
+        <v>0.01886227165377777</v>
+      </c>
+      <c r="R13">
+        <v>0.169760444884</v>
+      </c>
+      <c r="S13">
+        <v>0.002765290290564295</v>
+      </c>
+      <c r="T13">
+        <v>0.004798427409213326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1827426666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.5482279999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.0453083669048127</v>
+      </c>
+      <c r="J14">
+        <v>0.05598897761811442</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.039967</v>
+      </c>
+      <c r="O14">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P14">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q14">
+        <v>0.002434558719555555</v>
+      </c>
+      <c r="R14">
+        <v>0.021911028476</v>
+      </c>
+      <c r="S14">
+        <v>0.0003569167973279225</v>
+      </c>
+      <c r="T14">
+        <v>0.0006193343783655543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1827426666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.5482279999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.0453083669048127</v>
+      </c>
+      <c r="J15">
+        <v>0.05598897761811442</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.342529</v>
+      </c>
+      <c r="O15">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P15">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q15">
+        <v>0.02086488762355555</v>
+      </c>
+      <c r="R15">
+        <v>0.187783988612</v>
+      </c>
+      <c r="S15">
+        <v>0.00305888241979473</v>
+      </c>
+      <c r="T15">
+        <v>0.005307878632050816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1827426666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.5482279999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.0453083669048127</v>
+      </c>
+      <c r="J16">
+        <v>0.05598897761811442</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.1181105</v>
+      </c>
+      <c r="N16">
+        <v>2.236221</v>
+      </c>
+      <c r="O16">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P16">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q16">
+        <v>0.204326494398</v>
+      </c>
+      <c r="R16">
+        <v>1.225958966388</v>
+      </c>
+      <c r="S16">
+        <v>0.02995514439803253</v>
+      </c>
+      <c r="T16">
+        <v>0.03465280213483619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H17">
+        <v>2.971649</v>
+      </c>
+      <c r="I17">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J17">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.3423605</v>
+      </c>
+      <c r="N17">
+        <v>0.684721</v>
+      </c>
+      <c r="O17">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P17">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q17">
+        <v>0.3391250791548334</v>
+      </c>
+      <c r="R17">
+        <v>2.034750474929</v>
+      </c>
+      <c r="S17">
+        <v>0.04971719768895855</v>
+      </c>
+      <c r="T17">
+        <v>0.05751400131214766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H18">
+        <v>2.971649</v>
+      </c>
+      <c r="I18">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J18">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.309653</v>
+      </c>
+      <c r="O18">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P18">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q18">
+        <v>0.1022422253107778</v>
+      </c>
+      <c r="R18">
+        <v>0.9201800277969999</v>
+      </c>
+      <c r="S18">
+        <v>0.01498915073047181</v>
+      </c>
+      <c r="T18">
+        <v>0.02600969306960128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H19">
+        <v>2.971649</v>
+      </c>
+      <c r="I19">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J19">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.039967</v>
+      </c>
+      <c r="O19">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P19">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q19">
+        <v>0.01319643284255556</v>
+      </c>
+      <c r="R19">
+        <v>0.118767895583</v>
+      </c>
+      <c r="S19">
+        <v>0.001934653910166434</v>
+      </c>
+      <c r="T19">
+        <v>0.00335707841652674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H20">
+        <v>2.971649</v>
+      </c>
+      <c r="I20">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J20">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.342529</v>
+      </c>
+      <c r="O20">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P20">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q20">
+        <v>0.1130973289245556</v>
+      </c>
+      <c r="R20">
+        <v>1.017875960321</v>
+      </c>
+      <c r="S20">
+        <v>0.01658055568832783</v>
+      </c>
+      <c r="T20">
+        <v>0.02877115402543318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9905496666666668</v>
+      </c>
+      <c r="H21">
+        <v>2.971649</v>
+      </c>
+      <c r="I21">
+        <v>0.2455922776733764</v>
+      </c>
+      <c r="J21">
+        <v>0.3034861213763108</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.1181105</v>
+      </c>
+      <c r="N21">
+        <v>2.236221</v>
+      </c>
+      <c r="O21">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P21">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q21">
+        <v>1.1075439830715</v>
+      </c>
+      <c r="R21">
+        <v>6.645263898429</v>
+      </c>
+      <c r="S21">
+        <v>0.1623707196554517</v>
+      </c>
+      <c r="T21">
+        <v>0.1878341945526019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.3344835</v>
+      </c>
+      <c r="H22">
+        <v>0.668967</v>
+      </c>
+      <c r="I22">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J22">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.3423605</v>
+      </c>
+      <c r="N22">
+        <v>0.684721</v>
+      </c>
+      <c r="O22">
+        <v>0.2024379518768077</v>
+      </c>
+      <c r="P22">
+        <v>0.1895111415682583</v>
+      </c>
+      <c r="Q22">
+        <v>0.11451393830175</v>
+      </c>
+      <c r="R22">
+        <v>0.458055753207</v>
+      </c>
+      <c r="S22">
+        <v>0.01678823672633756</v>
+      </c>
+      <c r="T22">
+        <v>0.01294734637764537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.3344835</v>
+      </c>
+      <c r="H23">
+        <v>0.668967</v>
+      </c>
+      <c r="I23">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J23">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.1032176666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.309653</v>
+      </c>
+      <c r="O23">
+        <v>0.06103266304817009</v>
+      </c>
+      <c r="P23">
+        <v>0.08570307252156117</v>
+      </c>
+      <c r="Q23">
+        <v>0.0345246064085</v>
+      </c>
+      <c r="R23">
+        <v>0.207147638451</v>
+      </c>
+      <c r="S23">
+        <v>0.005061456045134301</v>
+      </c>
+      <c r="T23">
+        <v>0.005855209125873197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.3344835</v>
+      </c>
+      <c r="H24">
+        <v>0.668967</v>
+      </c>
+      <c r="I24">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J24">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.01332233333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.039967</v>
+      </c>
+      <c r="O24">
+        <v>0.007877503024502313</v>
+      </c>
+      <c r="P24">
+        <v>0.01106171972972726</v>
+      </c>
+      <c r="Q24">
+        <v>0.0044561006815</v>
+      </c>
+      <c r="R24">
+        <v>0.026736604089</v>
+      </c>
+      <c r="S24">
+        <v>0.0006532835585506442</v>
+      </c>
+      <c r="T24">
+        <v>0.0007557334924375804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.3344835</v>
+      </c>
+      <c r="H25">
+        <v>0.668967</v>
+      </c>
+      <c r="I25">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J25">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1141763333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.342529</v>
+      </c>
+      <c r="O25">
+        <v>0.06751252867314916</v>
+      </c>
+      <c r="P25">
+        <v>0.0948022067531651</v>
+      </c>
+      <c r="Q25">
+        <v>0.0381900995905</v>
+      </c>
+      <c r="R25">
+        <v>0.229140597543</v>
+      </c>
+      <c r="S25">
+        <v>0.005598833138008697</v>
+      </c>
+      <c r="T25">
+        <v>0.006476859344738208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.3344835</v>
+      </c>
+      <c r="H26">
+        <v>0.668967</v>
+      </c>
+      <c r="I26">
+        <v>0.08293028343101366</v>
+      </c>
+      <c r="J26">
+        <v>0.06831971075949632</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.1181105</v>
+      </c>
+      <c r="N26">
+        <v>2.236221</v>
+      </c>
+      <c r="O26">
+        <v>0.6611393533773707</v>
+      </c>
+      <c r="P26">
+        <v>0.6189218594272882</v>
+      </c>
+      <c r="Q26">
+        <v>0.37398951342675</v>
+      </c>
+      <c r="R26">
+        <v>1.495958053707</v>
+      </c>
+      <c r="S26">
+        <v>0.05482847396298245</v>
+      </c>
+      <c r="T26">
+        <v>0.04228456241880197</v>
       </c>
     </row>
   </sheetData>
